--- a/biology/Botanique/Syringodium/Syringodium.xlsx
+++ b/biology/Botanique/Syringodium/Syringodium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Syringodium  est un genre d'herbes marines, plantes marines monocotylédones de la famille des Cymodoceaceae.
-Le nom générique Syringodium dérive du grec « syringo » (tube) et du suffixe « ium »[1], pour qualifier une plante dont les feuilles sont de forme cylindrique.
+Le nom générique Syringodium dérive du grec « syringo » (tube) et du suffixe « ium », pour qualifier une plante dont les feuilles sont de forme cylindrique.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Caractéristiques générales</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Ce sont des plantes marines herbacées, vivaces, appartenant à la famille des Cymodoceaceae, dont les caractères distinctifs sont les suivants[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Ce sont des plantes marines herbacées, vivaces, appartenant à la famille des Cymodoceaceae, dont les caractères distinctifs sont les suivants :
 Feuilles portant une gaine à leur base, une ligule à la jonction de la gaine et du limbe,
 Présence de nombreuses cellules à tanin sur les feuilles,
 Feuilles cylindriques.</t>
@@ -545,11 +559,13 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon The Plant List            (19 mars 2014)[3],
-World Register of Marine Species                               (19 mars 2014)[4] et
-ITIS      (19 mars 2014)[5], sont actuellement acceptées dans ce genre :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon The Plant List            (19 mars 2014),
+World Register of Marine Species                               (19 mars 2014) et
+ITIS      (19 mars 2014), sont actuellement acceptées dans ce genre :
 Syringodium filiforme Kütz., 1860
 Syringodium isoetifolium (Asch.) Dandy, 1939
 			Syringodium filiforme
@@ -582,10 +598,12 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Syringodium filiforme a été identifiée dans l'ouest de l'océan Atlantique tropical, du golfe du Mexique, à la côte est de Floride (jusqu'à Cap Canaveral) et sur les côtes des îles Bermudes.
-Syringodium isoetifolium est largement répandue dans l'océan Indien depuis la mer Rouge jusqu'à Madagascar, l'île Maurice et les Seychelles ; dans la partie est du Golfe Persique ; dans la partie ouest du Pacifique. On la trouve aussi au sud de la ville de Perth (Australie Occidentale) ; à l'est des îles Fidji, aux Tonga, et dans la partie nord des îles Ryūkyū[2].
+Syringodium isoetifolium est largement répandue dans l'océan Indien depuis la mer Rouge jusqu'à Madagascar, l'île Maurice et les Seychelles ; dans la partie est du Golfe Persique ; dans la partie ouest du Pacifique. On la trouve aussi au sud de la ville de Perth (Australie Occidentale) ; à l'est des îles Fidji, aux Tonga, et dans la partie nord des îles Ryūkyū.
 </t>
         </is>
       </c>
